--- a/Schedule_PBL_paneles.xlsx
+++ b/Schedule_PBL_paneles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\David\MUSE\Ingeniería gráfica para el diseño mecánico aeroespacial\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S1/IGA/PBL/PBL_paneles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C49248-D24D-4E84-8EB8-B226A24833DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{85C49248-D24D-4E84-8EB8-B226A24833DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C546CBF4-93E6-4003-9292-1A4C7EA383DA}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D81C1CAE-6258-4F72-91E0-A4D66B1FBBDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81C1CAE-6258-4F72-91E0-A4D66B1FBBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Horas personales" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Día</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>-Pattern para colocar bisagras en panel compuesto</t>
+  </si>
+  <si>
+    <t>Dani, Representantes</t>
+  </si>
+  <si>
+    <t>- Comentar la declaración de intenciones entre los representantes de cada grupo</t>
+  </si>
+  <si>
+    <t>- Fijar una nomenclatura común, organización de GitHub y revisión de interfaces entre módulos</t>
+  </si>
+  <si>
+    <t>??/??/2020</t>
   </si>
 </sst>
 </file>
@@ -235,19 +247,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,9 +282,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,10 +318,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,52 +619,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0E61BE-E2D9-420F-9D87-8EFF8539EC3E}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>44188</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
@@ -656,12 +674,14 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>44189</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
@@ -669,8 +689,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>44190</v>
       </c>
       <c r="B5" s="1"/>
@@ -682,8 +702,8 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>44191</v>
       </c>
       <c r="B6" s="1"/>
@@ -695,8 +715,8 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>44192</v>
       </c>
       <c r="B7" s="1"/>
@@ -708,8 +728,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>44193</v>
       </c>
       <c r="B8" s="1"/>
@@ -721,8 +741,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>44194</v>
       </c>
       <c r="B9" s="1"/>
@@ -734,8 +754,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>44195</v>
       </c>
       <c r="B10" s="1"/>
@@ -747,8 +767,8 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>44196</v>
       </c>
       <c r="B11" s="1"/>
@@ -760,8 +780,8 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>44197</v>
       </c>
       <c r="B12" s="1"/>
@@ -773,8 +793,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>44198</v>
       </c>
       <c r="B13" s="1"/>
@@ -786,8 +806,8 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>44199</v>
       </c>
       <c r="B14" s="1"/>
@@ -799,8 +819,8 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>44200</v>
       </c>
       <c r="B15" s="1"/>
@@ -812,8 +832,8 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>44201</v>
       </c>
       <c r="B16" s="1"/>
@@ -825,8 +845,8 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>44202</v>
       </c>
       <c r="B17" s="1"/>
@@ -838,8 +858,8 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>44203</v>
       </c>
       <c r="B18" s="1"/>
@@ -851,8 +871,8 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>44204</v>
       </c>
       <c r="B19" s="1"/>
@@ -864,8 +884,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>44205</v>
       </c>
       <c r="B20" s="1"/>
@@ -875,8 +895,8 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>44206</v>
       </c>
       <c r="B21" s="1"/>
@@ -886,8 +906,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>44207</v>
       </c>
       <c r="B22" s="1"/>
@@ -897,8 +917,8 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>44208</v>
       </c>
       <c r="B23" s="1"/>
@@ -908,8 +928,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>44209</v>
       </c>
       <c r="B24" s="1"/>
@@ -919,8 +939,8 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>44210</v>
       </c>
       <c r="B25" s="1"/>
@@ -930,8 +950,8 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>44211</v>
       </c>
       <c r="B26" s="1"/>
@@ -941,8 +961,8 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>44212</v>
       </c>
       <c r="B27" s="1"/>
@@ -952,8 +972,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>44213</v>
       </c>
       <c r="B28" s="1"/>
@@ -963,8 +983,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>44214</v>
       </c>
       <c r="B29" s="1"/>
@@ -974,8 +994,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>44215</v>
       </c>
       <c r="B30" s="1"/>
@@ -985,8 +1005,8 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>44216</v>
       </c>
       <c r="B31" s="1"/>
@@ -996,8 +1016,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>44217</v>
       </c>
       <c r="B32" s="1"/>
@@ -1007,8 +1027,8 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>44218</v>
       </c>
       <c r="B33" s="1"/>
@@ -1018,8 +1038,8 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>44219</v>
       </c>
       <c r="B34" s="1"/>
@@ -1029,8 +1049,8 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>44220</v>
       </c>
       <c r="B35" s="1"/>
@@ -1040,7 +1060,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1049,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ref="C36:G36" si="0">SUM(C3:C35)</f>
+        <f t="shared" ref="C36:F36" si="0">SUM(C3:C35)</f>
         <v>0</v>
       </c>
       <c r="D36" s="2">
@@ -1097,76 +1117,76 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.54296875" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+    <row r="3" spans="1:3" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>44126</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <v>1.5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>44151</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>1.5</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>44166</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>1.5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>44203</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <f>SUM(B3:B6)</f>
         <v>5.5</v>
       </c>
@@ -1193,91 +1213,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0BE607-8046-4143-9878-273D4A02E343}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="52.54296875" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>44194</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B4" s="19">
         <v>0.5</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>44194</v>
       </c>
-      <c r="B4" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
-        <v>43833</v>
-      </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>0.5</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>44199</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>44199</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11">
-        <f>SUM(B3:B3)</f>
+      <c r="B9" s="8">
+        <f>SUM(B4:B4)</f>
         <v>0.5</v>
       </c>
-      <c r="C6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1286,12 +1339,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CC39154-7512-4EEB-AC57-491745F1500D}">
           <x14:formula1>
             <xm:f>Info!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B5</xm:sqref>
+          <xm:sqref>B3:B7 B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1307,97 +1360,97 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>

--- a/Schedule_PBL_paneles.xlsx
+++ b/Schedule_PBL_paneles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S1/IGA/PBL/PBL_paneles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{85C49248-D24D-4E84-8EB8-B226A24833DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C546CBF4-93E6-4003-9292-1A4C7EA383DA}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{85C49248-D24D-4E84-8EB8-B226A24833DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70F16C4F-9F03-477E-B4A4-2D5C6D3699D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81C1CAE-6258-4F72-91E0-A4D66B1FBBDE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Día</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>??/??/2020</t>
+  </si>
+  <si>
+    <t>Andrés, Dani, María, María Elena</t>
+  </si>
+  <si>
+    <t>- Discusión sobre la forma de soltar los paneles y mecanismo de orientación.</t>
   </si>
 </sst>
 </file>
@@ -282,15 +288,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +299,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,21 +626,21 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -694,7 +700,9 @@
         <v>44190</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
@@ -707,7 +715,9 @@
         <v>44191</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
@@ -720,7 +730,9 @@
         <v>44192</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
@@ -733,7 +745,9 @@
         <v>44193</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
@@ -746,7 +760,9 @@
         <v>44194</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
@@ -759,7 +775,9 @@
         <v>44195</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
@@ -772,7 +790,9 @@
         <v>44196</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
@@ -785,7 +805,9 @@
         <v>44197</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
       <c r="D12" s="1">
         <v>2</v>
       </c>
@@ -798,7 +820,9 @@
         <v>44198</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>1.5</v>
+      </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
@@ -811,7 +835,9 @@
         <v>44199</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
@@ -824,7 +850,9 @@
         <v>44200</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
@@ -837,7 +865,9 @@
         <v>44201</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
@@ -850,7 +880,9 @@
         <v>44202</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
       <c r="D17" s="1">
         <v>0</v>
       </c>
@@ -863,7 +895,9 @@
         <v>44203</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
@@ -876,7 +910,9 @@
         <v>44204</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>0.5</v>
+      </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
@@ -1070,7 +1106,7 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" ref="C36:F36" si="0">SUM(C3:C35)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
@@ -1123,11 +1159,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1213,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0BE607-8046-4143-9878-273D4A02E343}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,12 +1262,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1251,13 +1287,13 @@
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1265,13 +1301,13 @@
       <c r="A4" s="13">
         <v>44194</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>0.5</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1279,13 +1315,13 @@
       <c r="A5" s="13">
         <v>44194</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>0.5</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1293,13 +1329,13 @@
       <c r="A6" s="13">
         <v>44199</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>0.5</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1307,27 +1343,41 @@
       <c r="A7" s="13">
         <v>44199</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="22"/>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>44201</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <f>SUM(B4:B4)</f>
         <v>0.5</v>
       </c>
@@ -1344,7 +1394,7 @@
           <x14:formula1>
             <xm:f>Info!$A$2:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B7 B8</xm:sqref>
+          <xm:sqref>B3:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Schedule_PBL_paneles.xlsx
+++ b/Schedule_PBL_paneles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S1/IGA/PBL/PBL_paneles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d9294d159956677/Documentos/GitHub/PBL_paneles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{85C49248-D24D-4E84-8EB8-B226A24833DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{70F16C4F-9F03-477E-B4A4-2D5C6D3699D8}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{85C49248-D24D-4E84-8EB8-B226A24833DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{E4A2A54C-8499-48E9-97C0-8CB96BE599FF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D81C1CAE-6258-4F72-91E0-A4D66B1FBBDE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D81C1CAE-6258-4F72-91E0-A4D66B1FBBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Horas personales" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Día</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>- Discusión sobre la forma de soltar los paneles y mecanismo de orientación.</t>
+  </si>
+  <si>
+    <t>Reuniones de equipo</t>
   </si>
 </sst>
 </file>
@@ -629,9 +632,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
@@ -642,7 +645,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>44188</v>
       </c>
@@ -680,7 +683,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>44189</v>
       </c>
@@ -695,7 +698,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>44190</v>
       </c>
@@ -710,7 +713,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>44191</v>
       </c>
@@ -725,7 +728,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>44192</v>
       </c>
@@ -740,7 +743,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>44193</v>
       </c>
@@ -755,7 +758,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>44194</v>
       </c>
@@ -770,7 +773,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>44195</v>
       </c>
@@ -785,7 +788,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>44196</v>
       </c>
@@ -800,7 +803,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>44197</v>
       </c>
@@ -815,7 +818,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>44198</v>
       </c>
@@ -830,7 +833,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>44199</v>
       </c>
@@ -845,7 +848,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>44200</v>
       </c>
@@ -860,7 +863,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>44201</v>
       </c>
@@ -875,7 +878,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>44202</v>
       </c>
@@ -890,7 +893,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>44203</v>
       </c>
@@ -905,7 +908,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>44204</v>
       </c>
@@ -920,7 +923,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>44205</v>
       </c>
@@ -931,7 +934,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>44206</v>
       </c>
@@ -942,7 +945,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>44207</v>
       </c>
@@ -953,7 +956,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>44208</v>
       </c>
@@ -964,7 +967,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>44209</v>
       </c>
@@ -975,7 +978,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>44210</v>
       </c>
@@ -986,7 +989,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>44211</v>
       </c>
@@ -997,7 +1000,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>44212</v>
       </c>
@@ -1008,7 +1011,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>44213</v>
       </c>
@@ -1019,7 +1022,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>44214</v>
       </c>
@@ -1030,7 +1033,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>44215</v>
       </c>
@@ -1041,7 +1044,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>44216</v>
       </c>
@@ -1052,7 +1055,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>44217</v>
       </c>
@@ -1063,7 +1066,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>44218</v>
       </c>
@@ -1074,7 +1077,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>44219</v>
       </c>
@@ -1085,7 +1088,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>44220</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1153,19 +1156,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>44126</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>44151</v>
       </c>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>44166</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>44203</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1252,24 +1255,24 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>44194</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>44194</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>44199</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>44199</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>44201</v>
       </c>
@@ -1367,13 +1370,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1410,97 +1413,97 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5.5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
